--- a/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës2602-0-Albnori.xlsx
+++ b/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës2602-0-Albnori.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\565-6-Shefkia1\1-Situacioni\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\2602-0-Albnori\1-Situacioni\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
   <si>
     <t>Nr</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Ujembledhes</t>
+  </si>
+  <si>
+    <t>PERDHESA</t>
   </si>
 </sst>
 </file>
@@ -1168,84 +1171,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1262,6 +1187,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1625,19 +1628,16 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>00</a:t>
+            <a:t>02602-0</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>565-6</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
@@ -2028,7 +2028,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:I18"/>
+      <selection activeCell="H19" sqref="H19:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,112 +2044,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2177,19 +2177,19 @@
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C15" s="9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D15" s="10">
-        <v>7510843.9336000001</v>
+        <v>7513135.568</v>
       </c>
       <c r="E15" s="10">
-        <v>4693754.3136</v>
+        <v>4691722.8739999998</v>
       </c>
       <c r="F15" s="10">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G15" s="7">
-        <v>40</v>
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>13</v>
@@ -2200,19 +2200,19 @@
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C16" s="9">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D16" s="10">
-        <v>7510835.4665000001</v>
+        <v>7513132.5010000002</v>
       </c>
       <c r="E16" s="10">
-        <v>4693745.7829</v>
+        <v>4691720.0990000004</v>
       </c>
       <c r="F16" s="10">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G16" s="7">
-        <v>40</v>
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>13</v>
@@ -2223,19 +2223,19 @@
     </row>
     <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C17" s="9">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D17" s="10">
-        <v>7510831.7971999999</v>
+        <v>7513133.2570000002</v>
       </c>
       <c r="E17" s="10">
-        <v>4693766.6201999998</v>
+        <v>4691719.3229999999</v>
       </c>
       <c r="F17" s="10">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G17" s="7">
-        <v>40</v>
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>13</v>
@@ -2244,28 +2244,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="11">
-        <v>56</v>
-      </c>
-      <c r="D18" s="12">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="E18" s="12">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="F18" s="12">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G18" s="13">
-        <v>40</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="C18" s="9">
+        <v>7</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7513128.9859999996</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4691715.5049999999</v>
+      </c>
+      <c r="F18" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="4"/>
@@ -2274,104 +2274,216 @@
     <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="C19" s="9">
+        <v>11</v>
+      </c>
+      <c r="D19" s="10">
+        <v>7513130.5959999999</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4691713.7060000002</v>
+      </c>
+      <c r="F19" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C20" s="9">
+        <v>12</v>
+      </c>
+      <c r="D20" s="10">
+        <v>7513129.4539999999</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4691712.6560000004</v>
+      </c>
+      <c r="F20" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="C21" s="9">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10">
+        <v>7513129.1720000003</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4691712.0049999999</v>
+      </c>
+      <c r="F21" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="C22" s="9">
+        <v>14</v>
+      </c>
+      <c r="D22" s="10">
+        <v>7513129.6200000001</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4691710.9950000001</v>
+      </c>
+      <c r="F22" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="C23" s="9">
+        <v>15</v>
+      </c>
+      <c r="D23" s="10">
+        <v>7513132.6849999996</v>
+      </c>
+      <c r="E23" s="10">
+        <v>4691707.6550000003</v>
+      </c>
+      <c r="F23" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="C24" s="9">
+        <v>65</v>
+      </c>
+      <c r="D24" s="10">
+        <v>7513134.1550000003</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4691707.0219999999</v>
+      </c>
+      <c r="F24" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="C25" s="9">
+        <v>67</v>
+      </c>
+      <c r="D25" s="10">
+        <v>7513135.8569999998</v>
+      </c>
+      <c r="E25" s="10">
+        <v>4691707.7450000001</v>
+      </c>
+      <c r="F25" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="C26" s="11">
+        <v>68</v>
+      </c>
+      <c r="D26" s="12">
+        <v>7513143.2529999996</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4691714.4639999997</v>
+      </c>
+      <c r="F26" s="12">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
@@ -2446,34 +2558,34 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="26" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
     </row>
     <row r="36" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47">
         <v>152</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K37" s="4"/>
@@ -2523,1241 +2635,1241 @@
   <sheetData>
     <row r="7" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="Q8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="50" t="s">
+      <c r="R8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="50" t="s">
+      <c r="T8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="49" t="s">
+      <c r="U8" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E9" s="43">
+      <c r="E9" s="17">
         <v>21</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="16">
         <v>7510856.2149999999</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="16">
         <v>4693755.2929999996</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="16">
         <v>580.50199999999995</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="17">
         <v>17</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="16">
         <v>7510838.915</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="16">
         <v>4693774.6979999999</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="16">
         <v>580.52099999999996</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="17">
         <v>41</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="16">
         <v>7510832.7000000002</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="16">
         <v>4693767.3870000001</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="16">
         <v>587.18700000000001</v>
       </c>
-      <c r="U9" s="46" t="s">
+      <c r="U9" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E10" s="51">
+      <c r="E10" s="25">
         <v>26</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="19">
         <v>7510850.9060000004</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="19">
         <v>4693765.8650000002</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="19">
         <v>580.45299999999997</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="25">
         <v>14</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="19">
         <v>7510848.7010000004</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="19">
         <v>4693764.6710000001</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="19">
         <v>580.44100000000003</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="O10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="25">
         <v>65</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="19">
         <v>7510834.4950000001</v>
       </c>
-      <c r="S10" s="45">
+      <c r="S10" s="19">
         <v>4693744.9019999998</v>
       </c>
-      <c r="T10" s="45">
+      <c r="T10" s="19">
         <v>587.375</v>
       </c>
-      <c r="U10" s="41" t="s">
+      <c r="U10" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E11" s="51">
+      <c r="E11" s="25">
         <v>29</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="19">
         <v>7510843.0310000004</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="19">
         <v>4693780.1500000004</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="19">
         <v>580.28499999999997</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="25">
         <v>296</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="19">
         <v>7510832.5769999996</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="19">
         <v>4693767.6793</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O11" s="41" t="s">
+      <c r="O11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="25">
         <v>66</v>
       </c>
-      <c r="R11" s="45">
+      <c r="R11" s="19">
         <v>7510822.3530000001</v>
       </c>
-      <c r="S11" s="45">
+      <c r="S11" s="19">
         <v>4693757.1469999999</v>
       </c>
-      <c r="T11" s="45">
+      <c r="T11" s="19">
         <v>588.27300000000002</v>
       </c>
-      <c r="U11" s="41" t="s">
+      <c r="U11" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E12" s="51">
+      <c r="E12" s="25">
         <v>59</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="19">
         <v>7510814.6770000001</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="19">
         <v>4693718.9680000003</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="19">
         <v>581.64</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="25">
         <v>297</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="19">
         <v>7510844.9981000004</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="19">
         <v>4693755.2103000004</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="O12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="25">
         <v>42</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="19">
         <v>7510843.898</v>
       </c>
-      <c r="S12" s="45">
+      <c r="S12" s="19">
         <v>4693754.335</v>
       </c>
-      <c r="T12" s="45">
+      <c r="T12" s="19">
         <v>590.178</v>
       </c>
-      <c r="U12" s="41" t="s">
+      <c r="U12" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E13" s="51">
+      <c r="E13" s="25">
         <v>3</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="19">
         <v>7510839.8039999995</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="19">
         <v>4693780.8849999998</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="19">
         <v>580.41899999999998</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="25">
         <v>298</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="19">
         <v>7510834.6544000003</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="19">
         <v>4693744.9063999997</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="O13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="25">
         <v>70</v>
       </c>
-      <c r="R13" s="45">
+      <c r="R13" s="19">
         <v>7510823.3039999995</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S13" s="19">
         <v>4693758.0789999999</v>
       </c>
-      <c r="T13" s="45">
+      <c r="T13" s="19">
         <v>590.18700000000001</v>
       </c>
-      <c r="U13" s="41" t="s">
+      <c r="U13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E14" s="51">
+      <c r="E14" s="25">
         <v>55</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="19">
         <v>7510852.227</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="19">
         <v>4693757.7929999996</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="19">
         <v>580.50400000000002</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="25">
         <v>299</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="19">
         <v>7510822.2334000003</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="19">
         <v>4693757.3755000001</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="25">
         <v>71</v>
       </c>
-      <c r="R14" s="45">
+      <c r="R14" s="19">
         <v>7510822.4110000003</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="19">
         <v>4693757.165</v>
       </c>
-      <c r="T14" s="45">
+      <c r="T14" s="19">
         <v>590.17399999999998</v>
       </c>
-      <c r="U14" s="41" t="s">
+      <c r="U14" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E15" s="51">
+      <c r="E15" s="25">
         <v>57</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="19">
         <v>7510817.4160000002</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="19">
         <v>4693754.5769999996</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="19">
         <v>581.05799999999999</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="25">
         <v>327</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="19">
         <v>7510933.0552000003</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="19">
         <v>4693778.8828999996</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="19">
         <v>665.279</v>
       </c>
-      <c r="O15" s="41" t="s">
+      <c r="O15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="25">
         <v>72</v>
       </c>
-      <c r="R15" s="45">
+      <c r="R15" s="19">
         <v>7510822.4000000004</v>
       </c>
-      <c r="S15" s="45">
+      <c r="S15" s="19">
         <v>4693757.1540000001</v>
       </c>
-      <c r="T15" s="45">
+      <c r="T15" s="19">
         <v>591.33199999999999</v>
       </c>
-      <c r="U15" s="41" t="s">
+      <c r="U15" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E16" s="51">
+      <c r="E16" s="25">
         <v>20</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="19">
         <v>7510852.4390000002</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="19">
         <v>4693756.551</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="19">
         <v>580.61400000000003</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="25">
         <v>22</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="19">
         <v>7510856.2220000001</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="19">
         <v>4693755.2879999997</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="19">
         <v>580.56600000000003</v>
       </c>
-      <c r="O16" s="41" t="s">
+      <c r="O16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="25">
         <v>43</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="19">
         <v>7510844.7580000004</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="19">
         <v>4693755.1890000002</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="19">
         <v>590.18700000000001</v>
       </c>
-      <c r="U16" s="41" t="s">
+      <c r="U16" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E17" s="51">
+      <c r="E17" s="25">
         <v>79</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="19">
         <v>7510832.0049999999</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="19">
         <v>4693747.3870000001</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="25">
         <v>23</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="19">
         <v>7510850.8899999997</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="19">
         <v>4693752.8590000002</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="19">
         <v>580.62599999999998</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="O17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="25">
         <v>44</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="19">
         <v>7510844.7620000001</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="19">
         <v>4693755.193</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="19">
         <v>591.33799999999997</v>
       </c>
-      <c r="U17" s="41" t="s">
+      <c r="U17" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E18" s="51">
+      <c r="E18" s="25">
         <v>28</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="19">
         <v>7510842.0080000004</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="19">
         <v>4693779.1569999997</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="19">
         <v>580.46400000000006</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="25">
         <v>24</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="19">
         <v>7510845.5630000001</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="19">
         <v>4693763.2079999996</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="19">
         <v>580.58399999999995</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="25">
         <v>45</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="19">
         <v>7510831.8420000002</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="19">
         <v>4693766.5580000002</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="19">
         <v>593.30399999999997</v>
       </c>
-      <c r="U18" s="41" t="s">
+      <c r="U18" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E19" s="51">
+      <c r="E19" s="25">
         <v>53</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="19">
         <v>7510850.0630000001</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="19">
         <v>4693754.32</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="19">
         <v>585.34500000000003</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="25">
         <v>25</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="19">
         <v>7510850.8569999998</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="19">
         <v>4693765.8459999999</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="19">
         <v>580.52800000000002</v>
       </c>
-      <c r="O19" s="41" t="s">
+      <c r="O19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="25">
         <v>46</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="19">
         <v>7510832.6900000004</v>
       </c>
-      <c r="S19" s="45">
+      <c r="S19" s="19">
         <v>4693767.4069999997</v>
       </c>
-      <c r="T19" s="45">
+      <c r="T19" s="19">
         <v>593.298</v>
       </c>
-      <c r="U19" s="41" t="s">
+      <c r="U19" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E20" s="51">
+      <c r="E20" s="25">
         <v>300</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="19">
         <v>7510830.3503999999</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="19">
         <v>4693739.4398999996</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="19">
         <v>581.18700000000001</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="51">
+      <c r="K20" s="25">
         <v>30</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="19">
         <v>7510843.0099999998</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="19">
         <v>4693780.1459999997</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="19">
         <v>580.33699999999999</v>
       </c>
-      <c r="O20" s="41" t="s">
+      <c r="O20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="25">
         <v>67</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="19">
         <v>7510835.4249999998</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="19">
         <v>4693745.824</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="19">
         <v>590.16700000000003</v>
       </c>
-      <c r="U20" s="41" t="s">
+      <c r="U20" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E21" s="51">
+      <c r="E21" s="25">
         <v>5</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="19">
         <v>7510828.8200000003</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="19">
         <v>4693736.5530000003</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="19">
         <v>581.25199999999995</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="25">
         <v>31</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="19">
         <v>7510837.977</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="19">
         <v>4693776.977</v>
       </c>
-      <c r="N21" s="45">
+      <c r="N21" s="19">
         <v>580.41</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="O21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="25">
         <v>68</v>
       </c>
-      <c r="R21" s="45">
+      <c r="R21" s="19">
         <v>7510834.5439999998</v>
       </c>
-      <c r="S21" s="45">
+      <c r="S21" s="19">
         <v>4693744.9340000004</v>
       </c>
-      <c r="T21" s="45">
+      <c r="T21" s="19">
         <v>590.14400000000001</v>
       </c>
-      <c r="U21" s="41" t="s">
+      <c r="U21" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E22" s="51">
+      <c r="E22" s="25">
         <v>9</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="19">
         <v>7510847.3049999997</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="19">
         <v>4693756.4369999999</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="19">
         <v>580.69899999999996</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="25">
         <v>32</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="19">
         <v>7510843.9029999999</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="19">
         <v>4693754.3380000005</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N22" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="O22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="25">
         <v>69</v>
       </c>
-      <c r="R22" s="45">
+      <c r="R22" s="19">
         <v>7510834.4929999998</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="19">
         <v>4693745.0290000001</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="19">
         <v>591.36199999999997</v>
       </c>
-      <c r="U22" s="41" t="s">
+      <c r="U22" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E23" s="51">
+      <c r="E23" s="25">
         <v>16</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="19">
         <v>7510838.7439999999</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="19">
         <v>4693774.6440000003</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="19">
         <v>580.524</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="25">
         <v>63</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="19">
         <v>7510823.3119999999</v>
       </c>
-      <c r="M23" s="45">
+      <c r="M23" s="19">
         <v>4693758.0619999999</v>
       </c>
-      <c r="N23" s="45">
+      <c r="N23" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O23" s="41" t="s">
+      <c r="O23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="25">
         <v>47</v>
       </c>
-      <c r="R23" s="45">
+      <c r="R23" s="19">
         <v>7510843.8969999999</v>
       </c>
-      <c r="S23" s="45">
+      <c r="S23" s="19">
         <v>4693754.3430000003</v>
       </c>
-      <c r="T23" s="45">
+      <c r="T23" s="19">
         <v>593.25900000000001</v>
       </c>
-      <c r="U23" s="41" t="s">
+      <c r="U23" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E24" s="51">
+      <c r="E24" s="25">
         <v>58</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="19">
         <v>7510816.0659999996</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="19">
         <v>4693753.0669999998</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="19">
         <v>581.00300000000004</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="51">
+      <c r="K24" s="25">
         <v>64</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="19">
         <v>7510822.3650000002</v>
       </c>
-      <c r="M24" s="45">
+      <c r="M24" s="19">
         <v>4693757.1229999997</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="25">
         <v>76</v>
       </c>
-      <c r="R24" s="45">
+      <c r="R24" s="19">
         <v>7510823.3119999999</v>
       </c>
-      <c r="S24" s="45">
+      <c r="S24" s="19">
         <v>4693758.0619999999</v>
       </c>
-      <c r="T24" s="45">
+      <c r="T24" s="19">
         <v>593.27300000000002</v>
       </c>
-      <c r="U24" s="41" t="s">
+      <c r="U24" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E25" s="51">
+      <c r="E25" s="25">
         <v>4</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="19">
         <v>7510828.2419999996</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="19">
         <v>4693730.3839999996</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="19">
         <v>581.38199999999995</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="25">
         <v>34</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="19">
         <v>7510844.7369999997</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="19">
         <v>4693755.2079999996</v>
       </c>
-      <c r="N25" s="45">
+      <c r="N25" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O25" s="41" t="s">
+      <c r="O25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="25">
         <v>77</v>
       </c>
-      <c r="R25" s="45">
+      <c r="R25" s="19">
         <v>7510822.3890000004</v>
       </c>
-      <c r="S25" s="45">
+      <c r="S25" s="19">
         <v>4693757.1330000004</v>
       </c>
-      <c r="T25" s="45">
+      <c r="T25" s="19">
         <v>593.26400000000001</v>
       </c>
-      <c r="U25" s="41" t="s">
+      <c r="U25" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E26" s="51">
+      <c r="E26" s="25">
         <v>6</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="19">
         <v>7510835.7640000004</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="19">
         <v>4693738.5750000002</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="19">
         <v>581.18100000000004</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="25">
         <v>35</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="19">
         <v>7510831.858</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="19">
         <v>4693766.5590000004</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="19">
         <v>584.11599999999999</v>
       </c>
-      <c r="O26" s="41" t="s">
+      <c r="O26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="25">
         <v>78</v>
       </c>
-      <c r="R26" s="45">
+      <c r="R26" s="19">
         <v>7510822.3650000002</v>
       </c>
-      <c r="S26" s="45">
+      <c r="S26" s="19">
         <v>4693757.1229999997</v>
       </c>
-      <c r="T26" s="45">
+      <c r="T26" s="19">
         <v>594.428</v>
       </c>
-      <c r="U26" s="41" t="s">
+      <c r="U26" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E27" s="51">
+      <c r="E27" s="25">
         <v>7</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="19">
         <v>7510835.7649999997</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="19">
         <v>4693738.5750000002</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="19">
         <v>581.18299999999999</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="25">
         <v>36</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="19">
         <v>7510832.6960000005</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="19">
         <v>4693767.4139999999</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O27" s="41" t="s">
+      <c r="O27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="25">
         <v>48</v>
       </c>
-      <c r="R27" s="45">
+      <c r="R27" s="19">
         <v>7510844.7369999997</v>
       </c>
-      <c r="S27" s="45">
+      <c r="S27" s="19">
         <v>4693755.2079999996</v>
       </c>
-      <c r="T27" s="45">
+      <c r="T27" s="19">
         <v>593.27200000000005</v>
       </c>
-      <c r="U27" s="41" t="s">
+      <c r="U27" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E28" s="51">
+      <c r="E28" s="25">
         <v>8</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="19">
         <v>7510849.3859999999</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="19">
         <v>4693753.449</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="19">
         <v>580.72500000000002</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="25">
         <v>61</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="19">
         <v>7510835.4249999998</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="19">
         <v>4693745.824</v>
       </c>
-      <c r="N28" s="45">
+      <c r="N28" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O28" s="41" t="s">
+      <c r="O28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="51">
+      <c r="Q28" s="25">
         <v>49</v>
       </c>
-      <c r="R28" s="45">
+      <c r="R28" s="19">
         <v>7510844.7620000001</v>
       </c>
-      <c r="S28" s="45">
+      <c r="S28" s="19">
         <v>4693755.2110000001</v>
       </c>
-      <c r="T28" s="45">
+      <c r="T28" s="19">
         <v>594.38800000000003</v>
       </c>
-      <c r="U28" s="41" t="s">
+      <c r="U28" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E29" s="51">
+      <c r="E29" s="25">
         <v>52</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="19">
         <v>7510853.9239999996</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="19">
         <v>4693743.9119999995</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="19">
         <v>584.55100000000004</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="51">
+      <c r="K29" s="25">
         <v>62</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="19">
         <v>7510834.4950000001</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="19">
         <v>4693744.9019999998</v>
       </c>
-      <c r="N29" s="45">
+      <c r="N29" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O29" s="41" t="s">
+      <c r="O29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q29" s="51">
+      <c r="Q29" s="25">
         <v>50</v>
       </c>
-      <c r="R29" s="45">
+      <c r="R29" s="19">
         <v>7510831.8420000002</v>
       </c>
-      <c r="S29" s="45">
+      <c r="S29" s="19">
         <v>4693766.5599999996</v>
       </c>
-      <c r="T29" s="45">
+      <c r="T29" s="19">
         <v>593.30600000000004</v>
       </c>
-      <c r="U29" s="41" t="s">
+      <c r="U29" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E30" s="51">
+      <c r="E30" s="25">
         <v>1</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="19">
         <v>7510839.7960000001</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="19">
         <v>4693780.8739999998</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="19">
         <v>580.41399999999999</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="25">
         <v>37</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="19">
         <v>7510843.8969999999</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="19">
         <v>4693754.3380000005</v>
       </c>
-      <c r="N30" s="45">
+      <c r="N30" s="19">
         <v>587.15499999999997</v>
       </c>
-      <c r="O30" s="41" t="s">
+      <c r="O30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Q30" s="51">
+      <c r="Q30" s="25">
         <v>51</v>
       </c>
-      <c r="R30" s="45">
+      <c r="R30" s="19">
         <v>7510832.6960000005</v>
       </c>
-      <c r="S30" s="45">
+      <c r="S30" s="19">
         <v>4693767.4139999999</v>
       </c>
-      <c r="T30" s="45">
+      <c r="T30" s="19">
         <v>593.298</v>
       </c>
-      <c r="U30" s="41" t="s">
+      <c r="U30" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E31" s="51">
+      <c r="E31" s="25">
         <v>2</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="19">
         <v>7510852.2230000002</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="19">
         <v>4693757.7889999999</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="19">
         <v>580.53899999999999</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="51">
+      <c r="K31" s="25">
         <v>38</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="19">
         <v>7510844.733</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="19">
         <v>4693755.176</v>
       </c>
-      <c r="N31" s="45">
+      <c r="N31" s="19">
         <v>587.16200000000003</v>
       </c>
-      <c r="O31" s="41" t="s">
+      <c r="O31" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q31" s="51">
+      <c r="Q31" s="25">
         <v>73</v>
       </c>
-      <c r="R31" s="45">
+      <c r="R31" s="19">
         <v>7510835.4249999998</v>
       </c>
-      <c r="S31" s="45">
+      <c r="S31" s="19">
         <v>4693745.824</v>
       </c>
-      <c r="T31" s="45">
+      <c r="T31" s="19">
         <v>593.25400000000002</v>
       </c>
-      <c r="U31" s="41" t="s">
+      <c r="U31" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E32" s="51">
+      <c r="E32" s="25">
         <v>54</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="19">
         <v>7510827.0769999996</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="19">
         <v>4693733.3370000003</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="19">
         <v>581.29300000000001</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="51">
+      <c r="K32" s="25">
         <v>39</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="19">
         <v>7510844.7539999997</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="19">
         <v>4693755.1730000004</v>
       </c>
-      <c r="N32" s="45">
+      <c r="N32" s="19">
         <v>588.27200000000005</v>
       </c>
-      <c r="O32" s="41" t="s">
+      <c r="O32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32" s="25">
         <v>74</v>
       </c>
-      <c r="R32" s="45">
+      <c r="R32" s="19">
         <v>7510834.5439999998</v>
       </c>
-      <c r="S32" s="45">
+      <c r="S32" s="19">
         <v>4693744.9400000004</v>
       </c>
-      <c r="T32" s="45">
+      <c r="T32" s="19">
         <v>593.24800000000005</v>
       </c>
-      <c r="U32" s="41" t="s">
+      <c r="U32" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="47">
+      <c r="E33" s="21">
         <v>10</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="18">
         <v>7510847.4340000004</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="18">
         <v>4693756.4050000003</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="18">
         <v>580.69799999999998</v>
       </c>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="47">
+      <c r="K33" s="21">
         <v>40</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="18">
         <v>7510831.8430000003</v>
       </c>
-      <c r="M33" s="44">
+      <c r="M33" s="18">
         <v>4693766.5710000005</v>
       </c>
-      <c r="N33" s="44">
+      <c r="N33" s="18">
         <v>587.17100000000005</v>
       </c>
-      <c r="O33" s="48" t="s">
+      <c r="O33" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33" s="25">
         <v>75</v>
       </c>
-      <c r="R33" s="45">
+      <c r="R33" s="19">
         <v>7510834.4809999997</v>
       </c>
-      <c r="S33" s="45">
+      <c r="S33" s="19">
         <v>4693745.0439999998</v>
       </c>
-      <c r="T33" s="45">
+      <c r="T33" s="19">
         <v>594.46500000000003</v>
       </c>
-      <c r="U33" s="41" t="s">
+      <c r="U33" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q34" s="47">
+      <c r="Q34" s="21">
         <v>27</v>
       </c>
-      <c r="R34" s="44">
+      <c r="R34" s="18">
         <v>7510846.4699999997</v>
       </c>
-      <c r="S34" s="44">
+      <c r="S34" s="18">
         <v>4693774.4309999999</v>
       </c>
-      <c r="T34" s="44">
+      <c r="T34" s="18">
         <v>580.39499999999998</v>
       </c>
-      <c r="U34" s="48" t="s">
+      <c r="U34" s="22" t="s">
         <v>78</v>
       </c>
     </row>

--- a/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës2602-0-Albnori.xlsx
+++ b/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës2602-0-Albnori.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
   <si>
     <t>Nr</t>
   </si>
@@ -79,120 +79,9 @@
     <t>DSC</t>
   </si>
   <si>
-    <t>Asfallt</t>
-  </si>
-  <si>
-    <t>C2-1</t>
-  </si>
-  <si>
-    <t>CO1</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>E1-1</t>
-  </si>
-  <si>
-    <t>K1-1</t>
-  </si>
-  <si>
-    <t>K1-2</t>
-  </si>
-  <si>
-    <t>K2-1</t>
-  </si>
-  <si>
-    <t>K5-1</t>
-  </si>
-  <si>
-    <t>KYQJE-UJI</t>
-  </si>
-  <si>
-    <t>M1-1</t>
-  </si>
-  <si>
-    <t>M1-2</t>
-  </si>
-  <si>
-    <t>M1-3</t>
-  </si>
-  <si>
-    <t>M1-4</t>
-  </si>
-  <si>
-    <t>M2-1</t>
-  </si>
-  <si>
-    <t>M2-2</t>
-  </si>
-  <si>
-    <t>O2-1</t>
-  </si>
-  <si>
-    <t>O2-2</t>
-  </si>
-  <si>
-    <t>O2-3</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>Shenj</t>
-  </si>
-  <si>
-    <t>Shtyll</t>
-  </si>
-  <si>
     <t>STREHA</t>
   </si>
   <si>
-    <t>Tertuar</t>
-  </si>
-  <si>
-    <t>TK1-1</t>
-  </si>
-  <si>
-    <t>TK1-10</t>
-  </si>
-  <si>
-    <t>TK1-11</t>
-  </si>
-  <si>
-    <t>TK1-3</t>
-  </si>
-  <si>
-    <t>TK1-4</t>
-  </si>
-  <si>
-    <t>TK1-5</t>
-  </si>
-  <si>
-    <t>TK1-7</t>
-  </si>
-  <si>
-    <t>TK1-8</t>
-  </si>
-  <si>
-    <t>TK2-1</t>
-  </si>
-  <si>
-    <t>TK2-2</t>
-  </si>
-  <si>
-    <t>TK2-3</t>
-  </si>
-  <si>
-    <t>TK2-4</t>
-  </si>
-  <si>
     <t>TK2-5</t>
   </si>
   <si>
@@ -272,6 +161,33 @@
   </si>
   <si>
     <t>PERDHESA</t>
+  </si>
+  <si>
+    <t>FS1</t>
+  </si>
+  <si>
+    <t>FS2</t>
+  </si>
+  <si>
+    <t>KULMI</t>
+  </si>
+  <si>
+    <t>KYQJE-UJSJELLES</t>
+  </si>
+  <si>
+    <t>PUSET-FEKAL</t>
+  </si>
+  <si>
+    <t>SHKALET</t>
+  </si>
+  <si>
+    <t>SHTYLL-ELEKTRIKE</t>
+  </si>
+  <si>
+    <t>ST1</t>
+  </si>
+  <si>
+    <t>ST2</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1049,7 @@
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1267,6 +1183,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2028,7 +1946,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:I26"/>
+      <selection activeCell="E20" sqref="C14:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2107,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>13</v>
@@ -2212,7 +2130,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>13</v>
@@ -2235,7 +2153,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>13</v>
@@ -2260,7 +2178,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>13</v>
@@ -2287,7 +2205,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>13</v>
@@ -2314,7 +2232,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>13</v>
@@ -2341,7 +2259,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>13</v>
@@ -2368,7 +2286,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>13</v>
@@ -2395,7 +2313,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>13</v>
@@ -2422,7 +2340,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>13</v>
@@ -2449,7 +2367,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>13</v>
@@ -2476,7 +2394,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>13</v>
@@ -2615,26 +2533,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:U34"/>
+  <dimension ref="E7:AA47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U34" sqref="E8:U34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" customWidth="1"/>
     <col min="12" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" customWidth="1"/>
     <col min="18" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="26" t="s">
         <v>0</v>
       </c>
@@ -2681,36 +2600,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E9" s="17">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F9" s="16">
-        <v>7510856.2149999999</v>
+        <v>7513119.2929999996</v>
       </c>
       <c r="G9" s="16">
-        <v>4693755.2929999996</v>
+        <v>4691709.2750000004</v>
       </c>
       <c r="H9" s="16">
-        <v>580.50199999999995</v>
+        <v>619.928</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="K9" s="17">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L9" s="16">
-        <v>7510838.915</v>
+        <v>7513128.7640000004</v>
       </c>
       <c r="M9" s="16">
-        <v>4693774.6979999999</v>
+        <v>4691715.8310000002</v>
       </c>
       <c r="N9" s="16">
-        <v>580.52099999999996</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="17">
         <v>41</v>
@@ -2725,39 +2644,54 @@
         <v>587.18700000000001</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="W9">
+        <v>88</v>
+      </c>
+      <c r="X9">
+        <v>7513119.2929999996</v>
+      </c>
+      <c r="Y9">
+        <v>4691709.2750000004</v>
+      </c>
+      <c r="Z9">
+        <v>619.928</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E10" s="25">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="F10" s="19">
-        <v>7510850.9060000004</v>
+        <v>7513134.4440000001</v>
       </c>
       <c r="G10" s="19">
-        <v>4693765.8650000002</v>
+        <v>4691697.2300000004</v>
       </c>
       <c r="H10" s="19">
-        <v>580.45299999999997</v>
+        <v>619.81899999999996</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K10" s="25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L10" s="19">
-        <v>7510848.7010000004</v>
+        <v>7513126.8399999999</v>
       </c>
       <c r="M10" s="19">
-        <v>4693764.6710000001</v>
+        <v>4691714.1189999999</v>
       </c>
       <c r="N10" s="19">
-        <v>580.44100000000003</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="25">
         <v>65</v>
@@ -2772,39 +2706,54 @@
         <v>587.375</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="5:21" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="W10">
+        <v>92</v>
+      </c>
+      <c r="X10">
+        <v>7513134.4440000001</v>
+      </c>
+      <c r="Y10">
+        <v>4691697.2300000004</v>
+      </c>
+      <c r="Z10">
+        <v>619.81899999999996</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E11" s="25">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F11" s="19">
-        <v>7510843.0310000004</v>
+        <v>7513131.1179999998</v>
       </c>
       <c r="G11" s="19">
-        <v>4693780.1500000004</v>
+        <v>4691717.9220000003</v>
       </c>
       <c r="H11" s="19">
-        <v>580.28499999999997</v>
+        <v>634.43899999999996</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K11" s="25">
-        <v>296</v>
+        <v>10</v>
       </c>
       <c r="L11" s="19">
-        <v>7510832.5769999996</v>
+        <v>7513129.2309999997</v>
       </c>
       <c r="M11" s="19">
-        <v>4693767.6793</v>
+        <v>4691711.4869999997</v>
       </c>
       <c r="N11" s="19">
-        <v>598.59400000000005</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="25">
         <v>66</v>
@@ -2819,39 +2768,54 @@
         <v>588.27300000000002</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="5:21" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="W11">
+        <v>53</v>
+      </c>
+      <c r="X11">
+        <v>7513131.1179999998</v>
+      </c>
+      <c r="Y11">
+        <v>4691717.9220000003</v>
+      </c>
+      <c r="Z11">
+        <v>634.43899999999996</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E12" s="25">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F12" s="19">
-        <v>7510814.6770000001</v>
+        <v>7513126.2609999999</v>
       </c>
       <c r="G12" s="19">
-        <v>4693718.9680000003</v>
+        <v>4691714.5999999996</v>
       </c>
       <c r="H12" s="19">
-        <v>581.64</v>
+        <v>620.05600000000004</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K12" s="25">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="L12" s="19">
-        <v>7510844.9981000004</v>
+        <v>7513130.176</v>
       </c>
       <c r="M12" s="19">
-        <v>4693755.2103000004</v>
+        <v>4691693.9610000001</v>
       </c>
       <c r="N12" s="19">
-        <v>598.59400000000005</v>
+        <v>619.75699999999995</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="25">
         <v>42</v>
@@ -2866,39 +2830,54 @@
         <v>590.178</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="5:21" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="W12">
+        <v>17</v>
+      </c>
+      <c r="X12">
+        <v>7513126.2609999999</v>
+      </c>
+      <c r="Y12">
+        <v>4691714.5999999996</v>
+      </c>
+      <c r="Z12">
+        <v>620.05600000000004</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E13" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="19">
-        <v>7510839.8039999995</v>
+        <v>7513135.568</v>
       </c>
       <c r="G13" s="19">
-        <v>4693780.8849999998</v>
+        <v>4691722.8739999998</v>
       </c>
       <c r="H13" s="19">
-        <v>580.41899999999998</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="K13" s="25">
-        <v>298</v>
+        <v>86</v>
       </c>
       <c r="L13" s="19">
-        <v>7510834.6544000003</v>
+        <v>7513106.3210000005</v>
       </c>
       <c r="M13" s="19">
-        <v>4693744.9063999997</v>
+        <v>4691683.375</v>
       </c>
       <c r="N13" s="19">
-        <v>598.59400000000005</v>
+        <v>619.49699999999996</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="25">
         <v>70</v>
@@ -2913,39 +2892,54 @@
         <v>590.18700000000001</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="5:21" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>7513135.568</v>
+      </c>
+      <c r="Y13">
+        <v>4691722.8739999998</v>
+      </c>
+      <c r="Z13">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E14" s="25">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="F14" s="19">
-        <v>7510852.227</v>
+        <v>7513132.5010000002</v>
       </c>
       <c r="G14" s="19">
-        <v>4693757.7929999996</v>
+        <v>4691720.0990000004</v>
       </c>
       <c r="H14" s="19">
-        <v>580.50400000000002</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K14" s="25">
-        <v>299</v>
+        <v>87</v>
       </c>
       <c r="L14" s="19">
-        <v>7510822.2334000003</v>
+        <v>7513162.1500000004</v>
       </c>
       <c r="M14" s="19">
-        <v>4693757.3755000001</v>
+        <v>4691668.3320000004</v>
       </c>
       <c r="N14" s="19">
-        <v>598.59400000000005</v>
+        <v>619.82500000000005</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="25">
         <v>71</v>
@@ -2960,39 +2954,54 @@
         <v>590.17399999999998</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="5:21" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>7513132.5010000002</v>
+      </c>
+      <c r="Y14">
+        <v>4691720.0990000004</v>
+      </c>
+      <c r="Z14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E15" s="25">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F15" s="19">
-        <v>7510817.4160000002</v>
+        <v>7513133.2570000002</v>
       </c>
       <c r="G15" s="19">
-        <v>4693754.5769999996</v>
+        <v>4691719.3229999999</v>
       </c>
       <c r="H15" s="19">
-        <v>581.05799999999999</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K15" s="25">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="L15" s="19">
-        <v>7510933.0552000003</v>
+        <v>7513135.5049999999</v>
       </c>
       <c r="M15" s="19">
-        <v>4693778.8828999996</v>
+        <v>4691723.3190000001</v>
       </c>
       <c r="N15" s="19">
-        <v>665.279</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="25">
         <v>72</v>
@@ -3007,39 +3016,54 @@
         <v>591.33199999999999</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="5:21" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>7513133.2570000002</v>
+      </c>
+      <c r="Y15">
+        <v>4691719.3229999999</v>
+      </c>
+      <c r="Z15">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E16" s="25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F16" s="19">
-        <v>7510852.4390000002</v>
+        <v>7513128.9859999996</v>
       </c>
       <c r="G16" s="19">
-        <v>4693756.551</v>
+        <v>4691715.5049999999</v>
       </c>
       <c r="H16" s="19">
-        <v>580.61400000000003</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K16" s="25">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L16" s="19">
-        <v>7510856.2220000001</v>
+        <v>7513132.0180000002</v>
       </c>
       <c r="M16" s="19">
-        <v>4693755.2879999997</v>
+        <v>4691720.1610000003</v>
       </c>
       <c r="N16" s="19">
-        <v>580.56600000000003</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="25">
         <v>43</v>
@@ -3054,39 +3078,54 @@
         <v>590.18700000000001</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="W16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>7513128.9859999996</v>
+      </c>
+      <c r="Y16">
+        <v>4691715.5049999999</v>
+      </c>
+      <c r="Z16">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E17" s="25">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="F17" s="19">
-        <v>7510832.0049999999</v>
+        <v>7513130.5959999999</v>
       </c>
       <c r="G17" s="19">
-        <v>4693747.3870000001</v>
+        <v>4691713.7060000002</v>
       </c>
       <c r="H17" s="19">
-        <v>598.59400000000005</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K17" s="25">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="L17" s="19">
-        <v>7510850.8899999997</v>
+        <v>7513133.0020000003</v>
       </c>
       <c r="M17" s="19">
-        <v>4693752.8590000002</v>
+        <v>4691719.1229999997</v>
       </c>
       <c r="N17" s="19">
-        <v>580.62599999999998</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="25">
         <v>44</v>
@@ -3101,39 +3140,54 @@
         <v>591.33799999999997</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="5:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="W17">
+        <v>11</v>
+      </c>
+      <c r="X17">
+        <v>7513130.5959999999</v>
+      </c>
+      <c r="Y17">
+        <v>4691713.7060000002</v>
+      </c>
+      <c r="Z17">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E18" s="25">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F18" s="19">
-        <v>7510842.0080000004</v>
+        <v>7513129.4539999999</v>
       </c>
       <c r="G18" s="19">
-        <v>4693779.1569999997</v>
+        <v>4691712.6560000004</v>
       </c>
       <c r="H18" s="19">
-        <v>580.46400000000006</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K18" s="25">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="L18" s="19">
-        <v>7510845.5630000001</v>
+        <v>7513132.79</v>
       </c>
       <c r="M18" s="19">
-        <v>4693763.2079999996</v>
+        <v>4691719.4119999995</v>
       </c>
       <c r="N18" s="19">
-        <v>580.58399999999995</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="25">
         <v>45</v>
@@ -3148,39 +3202,54 @@
         <v>593.30399999999997</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="W18">
+        <v>12</v>
+      </c>
+      <c r="X18">
+        <v>7513129.4539999999</v>
+      </c>
+      <c r="Y18">
+        <v>4691712.6560000004</v>
+      </c>
+      <c r="Z18">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E19" s="25">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F19" s="19">
-        <v>7510850.0630000001</v>
+        <v>7513129.1720000003</v>
       </c>
       <c r="G19" s="19">
-        <v>4693754.32</v>
+        <v>4691712.0049999999</v>
       </c>
       <c r="H19" s="19">
-        <v>585.34500000000003</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K19" s="25">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="L19" s="19">
-        <v>7510850.8569999998</v>
+        <v>7513129.1050000004</v>
       </c>
       <c r="M19" s="19">
-        <v>4693765.8459999999</v>
+        <v>4691716.0439999998</v>
       </c>
       <c r="N19" s="19">
-        <v>580.52800000000002</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="25">
         <v>46</v>
@@ -3195,39 +3264,54 @@
         <v>593.298</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="5:21" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="W19">
+        <v>13</v>
+      </c>
+      <c r="X19">
+        <v>7513129.1720000003</v>
+      </c>
+      <c r="Y19">
+        <v>4691712.0049999999</v>
+      </c>
+      <c r="Z19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E20" s="25">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="F20" s="19">
-        <v>7510830.3503999999</v>
+        <v>7513129.6200000001</v>
       </c>
       <c r="G20" s="19">
-        <v>4693739.4398999996</v>
+        <v>4691710.9950000001</v>
       </c>
       <c r="H20" s="19">
-        <v>581.18700000000001</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K20" s="25">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="L20" s="19">
-        <v>7510843.0099999998</v>
+        <v>7513127.0199999996</v>
       </c>
       <c r="M20" s="19">
-        <v>4693780.1459999997</v>
+        <v>4691714.199</v>
       </c>
       <c r="N20" s="19">
-        <v>580.33699999999999</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="25">
         <v>67</v>
@@ -3242,39 +3326,54 @@
         <v>590.16700000000003</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="W20">
+        <v>14</v>
+      </c>
+      <c r="X20">
+        <v>7513129.6200000001</v>
+      </c>
+      <c r="Y20">
+        <v>4691710.9950000001</v>
+      </c>
+      <c r="Z20">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E21" s="25">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F21" s="19">
-        <v>7510828.8200000003</v>
+        <v>7513132.6849999996</v>
       </c>
       <c r="G21" s="19">
-        <v>4693736.5530000003</v>
+        <v>4691707.6550000003</v>
       </c>
       <c r="H21" s="19">
-        <v>581.25199999999995</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K21" s="25">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="L21" s="19">
-        <v>7510837.977</v>
+        <v>7513127.1469999999</v>
       </c>
       <c r="M21" s="19">
-        <v>4693776.977</v>
+        <v>4691713.0619999999</v>
       </c>
       <c r="N21" s="19">
-        <v>580.41</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="25">
         <v>68</v>
@@ -3289,39 +3388,54 @@
         <v>590.14400000000001</v>
       </c>
       <c r="U21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W21">
+        <v>15</v>
+      </c>
+      <c r="X21">
+        <v>7513132.6849999996</v>
+      </c>
+      <c r="Y21">
+        <v>4691707.6550000003</v>
+      </c>
+      <c r="Z21">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E22" s="25">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E22" s="25">
-        <v>9</v>
-      </c>
       <c r="F22" s="19">
-        <v>7510847.3049999997</v>
+        <v>7513134.1550000003</v>
       </c>
       <c r="G22" s="19">
-        <v>4693756.4369999999</v>
+        <v>4691707.0219999999</v>
       </c>
       <c r="H22" s="19">
-        <v>580.69899999999996</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K22" s="25">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="L22" s="19">
-        <v>7510843.9029999999</v>
+        <v>7513127.3590000002</v>
       </c>
       <c r="M22" s="19">
-        <v>4693754.3380000005</v>
+        <v>4691711.4989999998</v>
       </c>
       <c r="N22" s="19">
-        <v>584.08900000000006</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="25">
         <v>69</v>
@@ -3336,39 +3450,54 @@
         <v>591.36199999999997</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="5:21" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="W22">
+        <v>65</v>
+      </c>
+      <c r="X22">
+        <v>7513134.1550000003</v>
+      </c>
+      <c r="Y22">
+        <v>4691707.0219999999</v>
+      </c>
+      <c r="Z22">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E23" s="25">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F23" s="19">
-        <v>7510838.7439999999</v>
+        <v>7513135.8569999998</v>
       </c>
       <c r="G23" s="19">
-        <v>4693774.6440000003</v>
+        <v>4691707.7450000001</v>
       </c>
       <c r="H23" s="19">
-        <v>580.524</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K23" s="25">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L23" s="19">
-        <v>7510823.3119999999</v>
+        <v>7513131.8430000003</v>
       </c>
       <c r="M23" s="19">
-        <v>4693758.0619999999</v>
+        <v>4691706.5820000004</v>
       </c>
       <c r="N23" s="19">
-        <v>584.08900000000006</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="25">
         <v>47</v>
@@ -3383,39 +3512,54 @@
         <v>593.25900000000001</v>
       </c>
       <c r="U23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <v>7513135.8569999998</v>
+      </c>
+      <c r="Y23">
+        <v>4691707.7450000001</v>
+      </c>
+      <c r="Z23">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E24" s="25">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F24" s="19">
-        <v>7510816.0659999996</v>
+        <v>7513143.2529999996</v>
       </c>
       <c r="G24" s="19">
-        <v>4693753.0669999998</v>
+        <v>4691714.4639999997</v>
       </c>
       <c r="H24" s="19">
-        <v>581.00300000000004</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K24" s="25">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" s="19">
-        <v>7510822.3650000002</v>
+        <v>7513133.0470000003</v>
       </c>
       <c r="M24" s="19">
-        <v>4693757.1229999997</v>
+        <v>4691705.9019999998</v>
       </c>
       <c r="N24" s="19">
-        <v>584.08900000000006</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="Q24" s="25">
         <v>76</v>
@@ -3430,39 +3574,54 @@
         <v>593.27300000000002</v>
       </c>
       <c r="U24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W24">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <v>7513143.2529999996</v>
+      </c>
+      <c r="Y24">
+        <v>4691714.4639999997</v>
+      </c>
+      <c r="Z24">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E25" s="25">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F25" s="19">
-        <v>7510828.2419999996</v>
+        <v>7513119.5120000001</v>
       </c>
       <c r="G25" s="19">
-        <v>4693730.3839999996</v>
+        <v>4691717.4189999998</v>
       </c>
       <c r="H25" s="19">
-        <v>581.38199999999995</v>
+        <v>619.80700000000002</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K25" s="25">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="L25" s="19">
-        <v>7510844.7369999997</v>
+        <v>7513133.8760000002</v>
       </c>
       <c r="M25" s="19">
-        <v>4693755.2079999996</v>
+        <v>4691705.8289999999</v>
       </c>
       <c r="N25" s="19">
-        <v>584.08900000000006</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="25">
         <v>77</v>
@@ -3477,39 +3636,54 @@
         <v>593.26400000000001</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="5:21" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="W25">
+        <v>18</v>
+      </c>
+      <c r="X25">
+        <v>7513119.5120000001</v>
+      </c>
+      <c r="Y25">
+        <v>4691717.4189999998</v>
+      </c>
+      <c r="Z25">
+        <v>619.80700000000002</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E26" s="25">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F26" s="19">
-        <v>7510835.7640000004</v>
+        <v>7513128.3839999996</v>
       </c>
       <c r="G26" s="19">
-        <v>4693738.5750000002</v>
+        <v>4691703.3609999996</v>
       </c>
       <c r="H26" s="19">
-        <v>581.18100000000004</v>
+        <v>619.73699999999997</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="K26" s="25">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="L26" s="19">
-        <v>7510831.858</v>
+        <v>7513136.6900000004</v>
       </c>
       <c r="M26" s="19">
-        <v>4693766.5590000004</v>
+        <v>4691707.949</v>
       </c>
       <c r="N26" s="19">
-        <v>584.11599999999999</v>
+        <v>631.50699999999995</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="25">
         <v>78</v>
@@ -3524,39 +3698,54 @@
         <v>594.428</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="5:21" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="W26">
+        <v>19</v>
+      </c>
+      <c r="X26">
+        <v>7513128.3839999996</v>
+      </c>
+      <c r="Y26">
+        <v>4691703.3609999996</v>
+      </c>
+      <c r="Z26">
+        <v>619.73699999999997</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="25">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F27" s="19">
-        <v>7510835.7649999997</v>
+        <v>7513129.4989999998</v>
       </c>
       <c r="G27" s="19">
-        <v>4693738.5750000002</v>
+        <v>4691699.6840000004</v>
       </c>
       <c r="H27" s="19">
-        <v>581.18299999999999</v>
+        <v>619.68799999999999</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="25">
-        <v>36</v>
-      </c>
-      <c r="L27" s="19">
-        <v>7510832.6960000005</v>
-      </c>
-      <c r="M27" s="19">
-        <v>4693767.4139999999</v>
-      </c>
-      <c r="N27" s="19">
-        <v>584.08900000000006</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="K27" s="21">
+        <v>85</v>
+      </c>
+      <c r="L27" s="18">
+        <v>7513143.7450000001</v>
+      </c>
+      <c r="M27" s="18">
+        <v>4691714.4460000005</v>
+      </c>
+      <c r="N27" s="18">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="Q27" s="25">
         <v>48</v>
@@ -3571,40 +3760,45 @@
         <v>593.27200000000005</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E28" s="25">
-        <v>8</v>
-      </c>
-      <c r="F28" s="19">
-        <v>7510849.3859999999</v>
-      </c>
-      <c r="G28" s="19">
-        <v>4693753.449</v>
-      </c>
-      <c r="H28" s="19">
-        <v>580.72500000000002</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="25">
-        <v>61</v>
-      </c>
-      <c r="L28" s="19">
-        <v>7510835.4249999998</v>
-      </c>
-      <c r="M28" s="19">
-        <v>4693745.824</v>
-      </c>
-      <c r="N28" s="19">
-        <v>584.08900000000006</v>
-      </c>
-      <c r="O28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27">
+        <v>20</v>
+      </c>
+      <c r="X27">
+        <v>7513129.4989999998</v>
+      </c>
+      <c r="Y27">
+        <v>4691699.6840000004</v>
+      </c>
+      <c r="Z27">
+        <v>619.68799999999999</v>
+      </c>
+      <c r="AA27" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="28" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="21">
+        <v>21</v>
+      </c>
+      <c r="F28" s="18">
+        <v>7513131.3550000004</v>
+      </c>
+      <c r="G28" s="18">
+        <v>4691697.8609999996</v>
+      </c>
+      <c r="H28" s="18">
+        <v>619.721</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="53"/>
       <c r="Q28" s="25">
         <v>49</v>
       </c>
@@ -3618,40 +3812,35 @@
         <v>594.38800000000003</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E29" s="25">
-        <v>52</v>
-      </c>
-      <c r="F29" s="19">
-        <v>7510853.9239999996</v>
-      </c>
-      <c r="G29" s="19">
-        <v>4693743.9119999995</v>
-      </c>
-      <c r="H29" s="19">
-        <v>584.55100000000004</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="25">
-        <v>62</v>
-      </c>
-      <c r="L29" s="19">
-        <v>7510834.4950000001</v>
-      </c>
-      <c r="M29" s="19">
-        <v>4693744.9019999998</v>
-      </c>
-      <c r="N29" s="19">
-        <v>584.08900000000006</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="W28">
+        <v>21</v>
+      </c>
+      <c r="X28">
+        <v>7513131.3550000004</v>
+      </c>
+      <c r="Y28">
+        <v>4691697.8609999996</v>
+      </c>
+      <c r="Z28">
+        <v>619.721</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="53"/>
       <c r="Q29" s="25">
         <v>50</v>
       </c>
@@ -3665,40 +3854,35 @@
         <v>593.30600000000004</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E30" s="25">
-        <v>1</v>
-      </c>
-      <c r="F30" s="19">
-        <v>7510839.7960000001</v>
-      </c>
-      <c r="G30" s="19">
-        <v>4693780.8739999998</v>
-      </c>
-      <c r="H30" s="19">
-        <v>580.41399999999999</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" s="25">
-        <v>37</v>
-      </c>
-      <c r="L30" s="19">
-        <v>7510843.8969999999</v>
-      </c>
-      <c r="M30" s="19">
-        <v>4693754.3380000005</v>
-      </c>
-      <c r="N30" s="19">
-        <v>587.15499999999997</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>49</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="W29">
+        <v>8</v>
+      </c>
+      <c r="X29">
+        <v>7513128.7640000004</v>
+      </c>
+      <c r="Y29">
+        <v>4691715.8310000002</v>
+      </c>
+      <c r="Z29">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="53"/>
       <c r="Q30" s="25">
         <v>51</v>
       </c>
@@ -3712,40 +3896,35 @@
         <v>593.298</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E31" s="25">
-        <v>2</v>
-      </c>
-      <c r="F31" s="19">
-        <v>7510852.2230000002</v>
-      </c>
-      <c r="G31" s="19">
-        <v>4693757.7889999999</v>
-      </c>
-      <c r="H31" s="19">
-        <v>580.53899999999999</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" s="25">
-        <v>38</v>
-      </c>
-      <c r="L31" s="19">
-        <v>7510844.733</v>
-      </c>
-      <c r="M31" s="19">
-        <v>4693755.176</v>
-      </c>
-      <c r="N31" s="19">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="W30">
+        <v>9</v>
+      </c>
+      <c r="X30">
+        <v>7513126.8399999999</v>
+      </c>
+      <c r="Y30">
+        <v>4691714.1189999999</v>
+      </c>
+      <c r="Z30">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="53"/>
       <c r="Q31" s="25">
         <v>73</v>
       </c>
@@ -3759,40 +3938,35 @@
         <v>593.25400000000002</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E32" s="25">
-        <v>54</v>
-      </c>
-      <c r="F32" s="19">
-        <v>7510827.0769999996</v>
-      </c>
-      <c r="G32" s="19">
-        <v>4693733.3370000003</v>
-      </c>
-      <c r="H32" s="19">
-        <v>581.29300000000001</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="25">
-        <v>39</v>
-      </c>
-      <c r="L32" s="19">
-        <v>7510844.7539999997</v>
-      </c>
-      <c r="M32" s="19">
-        <v>4693755.1730000004</v>
-      </c>
-      <c r="N32" s="19">
-        <v>588.27200000000005</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>51</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="W31">
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <v>7513129.2309999997</v>
+      </c>
+      <c r="Y31">
+        <v>4691711.4869999997</v>
+      </c>
+      <c r="Z31">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="53"/>
       <c r="Q32" s="25">
         <v>74</v>
       </c>
@@ -3806,40 +3980,35 @@
         <v>593.24800000000005</v>
       </c>
       <c r="U32" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="21">
-        <v>10</v>
-      </c>
-      <c r="F33" s="18">
-        <v>7510847.4340000004</v>
-      </c>
-      <c r="G33" s="18">
-        <v>4693756.4050000003</v>
-      </c>
-      <c r="H33" s="18">
-        <v>580.69799999999998</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="21">
-        <v>40</v>
-      </c>
-      <c r="L33" s="18">
-        <v>7510831.8430000003</v>
-      </c>
-      <c r="M33" s="18">
-        <v>4693766.5710000005</v>
-      </c>
-      <c r="N33" s="18">
-        <v>587.17100000000005</v>
-      </c>
-      <c r="O33" s="22" t="s">
-        <v>52</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="W32">
+        <v>22</v>
+      </c>
+      <c r="X32">
+        <v>7513130.176</v>
+      </c>
+      <c r="Y32">
+        <v>4691693.9610000001</v>
+      </c>
+      <c r="Z32">
+        <v>619.75699999999995</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="53"/>
       <c r="Q33" s="25">
         <v>75</v>
       </c>
@@ -3853,10 +4022,25 @@
         <v>594.46500000000003</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="W33">
+        <v>86</v>
+      </c>
+      <c r="X33">
+        <v>7513106.3210000005</v>
+      </c>
+      <c r="Y33">
+        <v>4691683.375</v>
+      </c>
+      <c r="Z33">
+        <v>619.49699999999996</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q34" s="21">
         <v>27</v>
       </c>
@@ -3870,7 +4054,243 @@
         <v>580.39499999999998</v>
       </c>
       <c r="U34" s="22" t="s">
-        <v>78</v>
+        <v>41</v>
+      </c>
+      <c r="W34">
+        <v>87</v>
+      </c>
+      <c r="X34">
+        <v>7513162.1500000004</v>
+      </c>
+      <c r="Y34">
+        <v>4691668.3320000004</v>
+      </c>
+      <c r="Z34">
+        <v>619.82500000000005</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>54</v>
+      </c>
+      <c r="X35">
+        <v>7513135.5049999999</v>
+      </c>
+      <c r="Y35">
+        <v>4691723.3190000001</v>
+      </c>
+      <c r="Z35">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>55</v>
+      </c>
+      <c r="X36">
+        <v>7513132.0180000002</v>
+      </c>
+      <c r="Y36">
+        <v>4691720.1610000003</v>
+      </c>
+      <c r="Z36">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>56</v>
+      </c>
+      <c r="X37">
+        <v>7513133.0020000003</v>
+      </c>
+      <c r="Y37">
+        <v>4691719.1229999997</v>
+      </c>
+      <c r="Z37">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>57</v>
+      </c>
+      <c r="X38">
+        <v>7513132.79</v>
+      </c>
+      <c r="Y38">
+        <v>4691719.4119999995</v>
+      </c>
+      <c r="Z38">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>58</v>
+      </c>
+      <c r="X39">
+        <v>7513129.1050000004</v>
+      </c>
+      <c r="Y39">
+        <v>4691716.0439999998</v>
+      </c>
+      <c r="Z39">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>59</v>
+      </c>
+      <c r="X40">
+        <v>7513127.0199999996</v>
+      </c>
+      <c r="Y40">
+        <v>4691714.199</v>
+      </c>
+      <c r="Z40">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>60</v>
+      </c>
+      <c r="X41">
+        <v>7513127.1469999999</v>
+      </c>
+      <c r="Y41">
+        <v>4691713.0619999999</v>
+      </c>
+      <c r="Z41">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <v>61</v>
+      </c>
+      <c r="X42">
+        <v>7513127.3590000002</v>
+      </c>
+      <c r="Y42">
+        <v>4691711.4989999998</v>
+      </c>
+      <c r="Z42">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>62</v>
+      </c>
+      <c r="X43">
+        <v>7513131.8430000003</v>
+      </c>
+      <c r="Y43">
+        <v>4691706.5820000004</v>
+      </c>
+      <c r="Z43">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>63</v>
+      </c>
+      <c r="X44">
+        <v>7513133.0470000003</v>
+      </c>
+      <c r="Y44">
+        <v>4691705.9019999998</v>
+      </c>
+      <c r="Z44">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>64</v>
+      </c>
+      <c r="X45">
+        <v>7513133.8760000002</v>
+      </c>
+      <c r="Y45">
+        <v>4691705.8289999999</v>
+      </c>
+      <c r="Z45">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>84</v>
+      </c>
+      <c r="X46">
+        <v>7513136.6900000004</v>
+      </c>
+      <c r="Y46">
+        <v>4691707.949</v>
+      </c>
+      <c r="Z46">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <v>85</v>
+      </c>
+      <c r="X47">
+        <v>7513143.7450000001</v>
+      </c>
+      <c r="Y47">
+        <v>4691714.4460000005</v>
+      </c>
+      <c r="Z47">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës2602-0-Albnori.xlsx
+++ b/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës2602-0-Albnori.xlsx
@@ -70,9 +70,6 @@
 </t>
   </si>
   <si>
-    <t>Sead Prushi</t>
-  </si>
-  <si>
     <t>Shtëpi-Ndërtesë</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>ST2</t>
+  </si>
+  <si>
+    <t>Liridon Sejdiu</t>
   </si>
 </sst>
 </file>
@@ -1105,6 +1105,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1183,8 +1185,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="C14:I26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,112 +1962,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2107,10 +2107,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>10</v>
@@ -2130,10 +2130,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>10</v>
@@ -2153,10 +2153,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>10</v>
@@ -2178,10 +2178,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>10</v>
@@ -2205,10 +2205,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>10</v>
@@ -2232,10 +2232,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>10</v>
@@ -2259,10 +2259,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>10</v>
@@ -2286,10 +2286,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>10</v>
@@ -2313,10 +2313,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>10</v>
@@ -2340,10 +2340,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>10</v>
@@ -2367,10 +2367,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>10</v>
@@ -2394,10 +2394,10 @@
         <v>620.11199999999997</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>10</v>
@@ -2476,34 +2476,34 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="38" t="s">
+      <c r="E35" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47">
-        <v>152</v>
-      </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49">
+        <v>140</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K37" s="4"/>
@@ -2567,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="26" t="s">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="5:27" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>619.928</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="17">
         <v>8</v>
@@ -2629,7 +2629,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="17">
         <v>41</v>
@@ -2644,7 +2644,7 @@
         <v>587.18700000000001</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W9">
         <v>88</v>
@@ -2659,7 +2659,7 @@
         <v>619.928</v>
       </c>
       <c r="AA9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="5:27" x14ac:dyDescent="0.25">
@@ -2676,7 +2676,7 @@
         <v>619.81899999999996</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="25">
         <v>9</v>
@@ -2691,7 +2691,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="25">
         <v>65</v>
@@ -2706,7 +2706,7 @@
         <v>587.375</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W10">
         <v>92</v>
@@ -2721,7 +2721,7 @@
         <v>619.81899999999996</v>
       </c>
       <c r="AA10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="5:27" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>634.43899999999996</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11" s="25">
         <v>10</v>
@@ -2753,7 +2753,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="25">
         <v>66</v>
@@ -2768,7 +2768,7 @@
         <v>588.27300000000002</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W11">
         <v>53</v>
@@ -2783,7 +2783,7 @@
         <v>634.43899999999996</v>
       </c>
       <c r="AA11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="5:27" x14ac:dyDescent="0.25">
@@ -2800,7 +2800,7 @@
         <v>620.05600000000004</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" s="25">
         <v>22</v>
@@ -2815,7 +2815,7 @@
         <v>619.75699999999995</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="25">
         <v>42</v>
@@ -2830,7 +2830,7 @@
         <v>590.178</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W12">
         <v>17</v>
@@ -2845,7 +2845,7 @@
         <v>620.05600000000004</v>
       </c>
       <c r="AA12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="5:27" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" s="25">
         <v>86</v>
@@ -2877,7 +2877,7 @@
         <v>619.49699999999996</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="25">
         <v>70</v>
@@ -2892,7 +2892,7 @@
         <v>590.18700000000001</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -2907,7 +2907,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="5:27" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" s="25">
         <v>87</v>
@@ -2939,7 +2939,7 @@
         <v>619.82500000000005</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="25">
         <v>71</v>
@@ -2954,7 +2954,7 @@
         <v>590.17399999999998</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W14">
         <v>2</v>
@@ -2969,7 +2969,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="5:27" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" s="25">
         <v>54</v>
@@ -3001,7 +3001,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="25">
         <v>72</v>
@@ -3016,7 +3016,7 @@
         <v>591.33199999999999</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W15">
         <v>6</v>
@@ -3031,7 +3031,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="5:27" x14ac:dyDescent="0.25">
@@ -3048,7 +3048,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16" s="25">
         <v>55</v>
@@ -3063,7 +3063,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="25">
         <v>43</v>
@@ -3078,7 +3078,7 @@
         <v>590.18700000000001</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W16">
         <v>7</v>
@@ -3093,7 +3093,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="5:27" x14ac:dyDescent="0.25">
@@ -3110,7 +3110,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17" s="25">
         <v>56</v>
@@ -3125,7 +3125,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="25">
         <v>44</v>
@@ -3140,7 +3140,7 @@
         <v>591.33799999999997</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W17">
         <v>11</v>
@@ -3155,7 +3155,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="5:27" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18" s="25">
         <v>57</v>
@@ -3187,7 +3187,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="25">
         <v>45</v>
@@ -3202,7 +3202,7 @@
         <v>593.30399999999997</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W18">
         <v>12</v>
@@ -3217,7 +3217,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="5:27" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19" s="25">
         <v>58</v>
@@ -3249,7 +3249,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="25">
         <v>46</v>
@@ -3264,7 +3264,7 @@
         <v>593.298</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W19">
         <v>13</v>
@@ -3279,7 +3279,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="5:27" x14ac:dyDescent="0.25">
@@ -3296,7 +3296,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20" s="25">
         <v>59</v>
@@ -3311,7 +3311,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="25">
         <v>67</v>
@@ -3326,7 +3326,7 @@
         <v>590.16700000000003</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W20">
         <v>14</v>
@@ -3341,7 +3341,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="5:27" x14ac:dyDescent="0.25">
@@ -3358,7 +3358,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21" s="25">
         <v>60</v>
@@ -3373,7 +3373,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="25">
         <v>68</v>
@@ -3388,7 +3388,7 @@
         <v>590.14400000000001</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W21">
         <v>15</v>
@@ -3403,7 +3403,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="5:27" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22" s="25">
         <v>61</v>
@@ -3435,7 +3435,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="25">
         <v>69</v>
@@ -3450,7 +3450,7 @@
         <v>591.36199999999997</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W22">
         <v>65</v>
@@ -3465,7 +3465,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="5:27" x14ac:dyDescent="0.25">
@@ -3482,7 +3482,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23" s="25">
         <v>62</v>
@@ -3497,7 +3497,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="25">
         <v>47</v>
@@ -3512,7 +3512,7 @@
         <v>593.25900000000001</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W23">
         <v>67</v>
@@ -3527,7 +3527,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="5:27" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24" s="25">
         <v>63</v>
@@ -3559,7 +3559,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="25">
         <v>76</v>
@@ -3574,7 +3574,7 @@
         <v>593.27300000000002</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W24">
         <v>68</v>
@@ -3589,7 +3589,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="5:27" x14ac:dyDescent="0.25">
@@ -3606,7 +3606,7 @@
         <v>619.80700000000002</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25" s="25">
         <v>64</v>
@@ -3621,7 +3621,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="25">
         <v>77</v>
@@ -3636,7 +3636,7 @@
         <v>593.26400000000001</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W25">
         <v>18</v>
@@ -3651,7 +3651,7 @@
         <v>619.80700000000002</v>
       </c>
       <c r="AA25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="5:27" x14ac:dyDescent="0.25">
@@ -3668,7 +3668,7 @@
         <v>619.73699999999997</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26" s="25">
         <v>84</v>
@@ -3683,7 +3683,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q26" s="25">
         <v>78</v>
@@ -3698,7 +3698,7 @@
         <v>594.428</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W26">
         <v>19</v>
@@ -3713,7 +3713,7 @@
         <v>619.73699999999997</v>
       </c>
       <c r="AA26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3730,7 +3730,7 @@
         <v>619.68799999999999</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27" s="21">
         <v>85</v>
@@ -3745,7 +3745,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q27" s="25">
         <v>48</v>
@@ -3760,7 +3760,7 @@
         <v>593.27200000000005</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W27">
         <v>20</v>
@@ -3775,7 +3775,7 @@
         <v>619.68799999999999</v>
       </c>
       <c r="AA27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3792,13 +3792,13 @@
         <v>619.721</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" s="53"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="53"/>
+        <v>46</v>
+      </c>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="27"/>
       <c r="Q28" s="25">
         <v>49</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>594.38800000000003</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W28">
         <v>21</v>
@@ -3827,20 +3827,20 @@
         <v>619.721</v>
       </c>
       <c r="AA28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="53"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="27"/>
       <c r="Q29" s="25">
         <v>50</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>593.30600000000004</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W29">
         <v>8</v>
@@ -3869,20 +3869,20 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="53"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="27"/>
       <c r="Q30" s="25">
         <v>51</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>593.298</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W30">
         <v>9</v>
@@ -3911,20 +3911,20 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="53"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="27"/>
       <c r="Q31" s="25">
         <v>73</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>593.25400000000002</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W31">
         <v>10</v>
@@ -3953,20 +3953,20 @@
         <v>620.11199999999997</v>
       </c>
       <c r="AA31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="53"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="27"/>
       <c r="Q32" s="25">
         <v>74</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>593.24800000000005</v>
       </c>
       <c r="U32" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W32">
         <v>22</v>
@@ -3995,20 +3995,20 @@
         <v>619.75699999999995</v>
       </c>
       <c r="AA32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="53"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="27"/>
       <c r="Q33" s="25">
         <v>75</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>594.46500000000003</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W33">
         <v>86</v>
@@ -4037,7 +4037,7 @@
         <v>619.49699999999996</v>
       </c>
       <c r="AA33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4054,7 +4054,7 @@
         <v>580.39499999999998</v>
       </c>
       <c r="U34" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W34">
         <v>87</v>
@@ -4069,7 +4069,7 @@
         <v>619.82500000000005</v>
       </c>
       <c r="AA34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="5:27" x14ac:dyDescent="0.25">
@@ -4086,7 +4086,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="5:27" x14ac:dyDescent="0.25">
@@ -4103,7 +4103,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="5:27" x14ac:dyDescent="0.25">
@@ -4120,7 +4120,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="5:27" x14ac:dyDescent="0.25">
@@ -4137,7 +4137,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="5:27" x14ac:dyDescent="0.25">
@@ -4154,7 +4154,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="5:27" x14ac:dyDescent="0.25">
@@ -4171,7 +4171,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="5:27" x14ac:dyDescent="0.25">
@@ -4188,7 +4188,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="5:27" x14ac:dyDescent="0.25">
@@ -4205,7 +4205,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="5:27" x14ac:dyDescent="0.25">
@@ -4222,7 +4222,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="5:27" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="5:27" x14ac:dyDescent="0.25">
@@ -4256,7 +4256,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="5:27" x14ac:dyDescent="0.25">
@@ -4273,7 +4273,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="5:27" x14ac:dyDescent="0.25">
@@ -4290,7 +4290,7 @@
         <v>631.50699999999995</v>
       </c>
       <c r="AA47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
